--- a/documents/Data Dictionary.xlsx
+++ b/documents/Data Dictionary.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\banan\OneDrive\Documents\GitHub\Predicting-New-York-City-Taxi-Demand\documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51787A36-C48F-4A84-A29B-BDA952285AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="21345" yWindow="0" windowWidth="17055" windowHeight="15600" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Yellow Taxi Trip Data" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Cleaned Taxi Data" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Weather Data" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Feature Engineering" sheetId="4" r:id="rId7"/>
+    <sheet name="Yellow Taxi Trip Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Cleaned Taxi Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Weather Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Feature Engineering" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -615,67 +624,67 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m-d"/>
+    <numFmt numFmtId="164" formatCode="m\-d"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -697,7 +706,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -711,262 +726,419 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="90" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="90" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
+  <dxfs count="31">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE0F7FA"/>
+          <bgColor rgb="FFE0F7FA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF8E3"/>
+          <bgColor rgb="FFFEF8E3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFBDBDBD"/>
           <bgColor rgb="FFBDBDBD"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFFFF"/>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDBDBD"/>
+          <bgColor rgb="FFBDBDBD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF3F3F3"/>
           <bgColor rgb="FFF3F3F3"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFEF8E3"/>
-          <bgColor rgb="FFFEF8E3"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE0F7FA"/>
-          <bgColor rgb="FFE0F7FA"/>
-        </patternFill>
-      </fill>
-      <border/>
+          <fgColor rgb="FFBDBDBD"/>
+          <bgColor rgb="FFBDBDBD"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="5">
-    <tableStyle count="3" pivot="0" name="Yellow Taxi Trip Data-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Yellow Taxi Trip Data-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="30"/>
+      <tableStyleElement type="firstRowStripe" dxfId="29"/>
+      <tableStyleElement type="secondRowStripe" dxfId="28"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Cleaned Taxi Data-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Cleaned Taxi Data-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="headerRow" dxfId="27"/>
+      <tableStyleElement type="firstRowStripe" dxfId="26"/>
+      <tableStyleElement type="secondRowStripe" dxfId="25"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Weather Data-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Weather Data-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+      <tableStyleElement type="headerRow" dxfId="24"/>
+      <tableStyleElement type="firstRowStripe" dxfId="23"/>
+      <tableStyleElement type="secondRowStripe" dxfId="22"/>
     </tableStyle>
-    <tableStyle count="2" pivot="0" name="Feature Engineering-style">
-      <tableStyleElement dxfId="4" type="firstRowStripe"/>
-      <tableStyleElement dxfId="5" type="secondRowStripe"/>
+    <tableStyle name="Feature Engineering-style" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
+      <tableStyleElement type="firstRowStripe" dxfId="21"/>
+      <tableStyleElement type="secondRowStripe" dxfId="20"/>
     </tableStyle>
-    <tableStyle count="2" pivot="0" name="Feature Engineering-style 2">
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="6" type="secondRowStripe"/>
+    <tableStyle name="Feature Engineering-style 2" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+      <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G20" displayName="Table_1" name="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:G20">
   <tableColumns count="7">
-    <tableColumn name="Column Name" id="1"/>
-    <tableColumn name="Data Type" id="2"/>
-    <tableColumn name="New Type" id="3"/>
-    <tableColumn name="Column Description" id="4"/>
-    <tableColumn name="Expected/Allowed Values" id="5"/>
-    <tableColumn name="Field Limitations" id="6"/>
-    <tableColumn name="Additional Notes" id="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Data Type"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="New Type"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column Description"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Expected/Allowed Values"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Field Limitations"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Additional Notes"/>
   </tableColumns>
-  <tableStyleInfo name="Yellow Taxi Trip Data-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Yellow Taxi Trip Data-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C13" displayName="Table_2" name="Table_2" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="A1:C13">
   <tableColumns count="3">
-    <tableColumn name="Column Name" id="1"/>
-    <tableColumn name="New Type" id="2"/>
-    <tableColumn name="Field Limitations" id="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="New Type"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Field Limitations"/>
   </tableColumns>
-  <tableStyleInfo name="Cleaned Taxi Data-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Cleaned Taxi Data-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:D33" displayName="Table_3" name="Table_3" id="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table_3" displayName="Table_3" ref="A1:D33">
   <tableColumns count="4">
-    <tableColumn name="Element" id="1"/>
-    <tableColumn name="Data Type" id="2"/>
-    <tableColumn name="Description" id="3"/>
-    <tableColumn name="US" id="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Element"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Data Type"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Description"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="US"/>
   </tableColumns>
-  <tableStyleInfo name="Weather Data-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Weather Data-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B2:G12" displayName="Table_4" name="Table_4" id="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table_4" displayName="Table_4" ref="B2:G12" headerRowCount="0" headerRowDxfId="11" dataDxfId="9" totalsRowDxfId="10">
   <tableColumns count="6">
-    <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-    <tableColumn name="Column3" id="3"/>
-    <tableColumn name="Column4" id="4"/>
-    <tableColumn name="Column5" id="5"/>
-    <tableColumn name="Column6" id="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Column1" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Column2" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Column3" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Column4" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Column5" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Column6" dataDxfId="12"/>
   </tableColumns>
-  <tableStyleInfo name="Feature Engineering-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Feature Engineering-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="B13:G27" displayName="Table_5" name="Table_5" id="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_5" displayName="Table_5" ref="B13:G27" headerRowCount="0" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
   <tableColumns count="6">
-    <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-    <tableColumn name="Column3" id="3"/>
-    <tableColumn name="Column4" id="4"/>
-    <tableColumn name="Column5" id="5"/>
-    <tableColumn name="Column6" id="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Column1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Column2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Column3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Column4" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Column5" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Column6" dataDxfId="3"/>
   </tableColumns>
-  <tableStyleInfo name="Feature Engineering-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Feature Engineering-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1156,32 +1328,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.0"/>
-    <col customWidth="1" min="2" max="2" width="9.75"/>
-    <col customWidth="1" min="3" max="3" width="10.38"/>
-    <col customWidth="1" min="4" max="4" width="52.25"/>
-    <col customWidth="1" min="5" max="5" width="33.63"/>
-    <col customWidth="1" min="6" max="6" width="16.63"/>
-    <col customWidth="1" min="7" max="7" width="26.38"/>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1218,27 +1393,27 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -1249,34 +1424,34 @@
       <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="9">
-        <v>45298.0</v>
+      <c r="E5" s="2"/>
+      <c r="F5" s="5">
+        <v>45298</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1287,20 +1462,20 @@
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1312,9 +1487,9 @@
       <c r="F7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -1328,27 +1503,27 @@
       <c r="E8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -1362,10 +1537,10 @@
       <c r="E10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -1382,9 +1557,9 @@
       <c r="F11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -1395,13 +1570,13 @@
       <c r="D12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>45</v>
       </c>
@@ -1412,11 +1587,11 @@
       <c r="D13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>47</v>
       </c>
@@ -1427,28 +1602,28 @@
       <c r="D14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="s">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="7"/>
+      <c r="B15" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="18"/>
       <c r="D15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>52</v>
       </c>
@@ -1459,11 +1634,11 @@
       <c r="D16" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>54</v>
       </c>
@@ -1474,11 +1649,11 @@
       <c r="D17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18">
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>56</v>
       </c>
@@ -1489,13 +1664,13 @@
       <c r="D18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>59</v>
       </c>
@@ -1506,11 +1681,11 @@
       <c r="D19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>61</v>
       </c>
@@ -1521,82 +1696,83 @@
       <c r="D20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.5"/>
-    <col customWidth="1" min="2" max="2" width="10.38"/>
-    <col customWidth="1" min="3" max="3" width="33.25"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1607,18 +1783,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="18" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>64</v>
       </c>
@@ -1629,18 +1805,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9">
-        <v>45298.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="C4" s="5">
+        <v>45298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1651,47 +1827,47 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="s">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
@@ -1702,29 +1878,29 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>56</v>
       </c>
@@ -1735,953 +1911,986 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="35.88"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="13" t="s">
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="14"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="13" t="s">
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="14" t="s">
+      <c r="B10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="14" t="s">
+      <c r="B12" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="14" t="s">
+      <c r="B16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="17" ht="51.75" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="16" t="s">
+    <row r="17" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="14" t="s">
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="14" t="s">
+      <c r="B19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="14" t="s">
+      <c r="B21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="14" t="s">
+      <c r="B22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="14" t="s">
+      <c r="B23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="14" t="s">
+      <c r="B24" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="14" t="s">
+      <c r="B25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="9" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="14" t="s">
+      <c r="B26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="14" t="s">
+      <c r="B27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="14" t="s">
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="14" t="s">
+      <c r="B30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="14" t="s">
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="14" t="s">
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="14" t="s">
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="9" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.0"/>
-    <col customWidth="1" min="2" max="2" width="16.0"/>
-    <col customWidth="1" min="3" max="3" width="29.0"/>
-    <col customWidth="1" min="4" max="4" width="11.88"/>
-    <col customWidth="1" min="5" max="5" width="24.38"/>
-    <col customWidth="1" min="6" max="6" width="10.5"/>
-    <col customWidth="1" min="7" max="7" width="18.88"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19" t="s">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19" t="s">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="15"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19" t="s">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="15"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19" t="s">
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="15"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="20" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="7" ht="62.25" customHeight="1">
-      <c r="B7" s="19" t="s">
+    <row r="7" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15"/>
+      <c r="B7" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="20" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="19" t="s">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="15"/>
+      <c r="B8" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="20" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="19" t="s">
+    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="15"/>
+      <c r="B9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="19" t="s">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="15"/>
+      <c r="B10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="19" t="s">
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="15"/>
+      <c r="B11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="19" t="s">
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="19" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="20" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="20" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="19" t="s">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="19" t="s">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="19" t="s">
+      <c r="D15" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="19" t="s">
+      <c r="F15" s="20"/>
+      <c r="G15" s="20" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" s="19" t="s">
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="D16" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="19" t="s">
+      <c r="D16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="19" t="s">
+      <c r="F16" s="20"/>
+      <c r="G16" s="20" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" s="19" t="s">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="19" t="s">
+      <c r="D17" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="19" t="s">
+      <c r="F17" s="20"/>
+      <c r="G17" s="20" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="19" t="s">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="19" t="s">
+      <c r="D18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="19" t="s">
+      <c r="F18" s="20"/>
+      <c r="G18" s="20" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="19" t="s">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="19" t="s">
+      <c r="D19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="19" t="s">
+      <c r="F19" s="20"/>
+      <c r="G19" s="20" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="20">
-      <c r="B20" s="19" t="s">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="15"/>
+      <c r="B20" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="19" t="s">
+      <c r="D20" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="19" t="s">
+      <c r="F20" s="20"/>
+      <c r="G20" s="20" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" s="19" t="s">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="15"/>
+      <c r="B21" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="19" t="s">
+      <c r="F21" s="20"/>
+      <c r="G21" s="20" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="22">
-      <c r="B22" s="19" t="s">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="20" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="20"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="19"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="20"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="20"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="22"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="19"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="22"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="19"/>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="13"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="13"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="A13:A22"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">
-    <tablePart r:id="rId4"/>
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>